--- a/biology/Histoire de la zoologie et de la botanique/Victor_Fatio/Victor_Fatio.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Fatio/Victor_Fatio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Fatio de Beaumont est un zoologiste suisse, né le 28 novembre 1838 à Genève et mort le 19 mars 1906 dans cette même ville.
 Il est le fils de Gustave Fatio de Beaumont qui l’initie très tôt à la chasse. C’est d’ailleurs par la chasse qu’il commence à s’intéresser aux animaux. Il entreprend des études de physiologie à Zurich, Berlin et Leipzig. Mais, atteint de typhus en 1861, il doit reprendre ses études car il a oublié une partie de ce qu’il avait appris. Il vient à Paris, l’année suivante pour y suivre les cours d’Henri Milne-Edwards (1800-1885) au Muséum national d'histoire naturelle. Il se consacre alors à l’étude de la zoologie et fait paraître de 1869 à 1903 sa Faune des Vertébrés de la Suisse, fruit de quarante ans d’effort. Il étudie à partir de 1874 le phylloxéra qui atteint alors le pays. (Il est également l'auteur de plusieurs ouvrages sur le phylloxéra en Suisse et en Savoie).
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1877 : Instructions sommaires à l'usage des Commissions centrales d'étude et de vigilance du phylloxéra des départements de la Savoie et de la Haute-Savoie. Chambéry, Ménard. C'est un opuscule destiné à permettre de reconnaître les premières attaques du phylloxéra.
 1869 : Faune des vertébrés de la Suisse (cinq volumes, H. Georg, Genève ; Bâle).
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maurice Boubier, L’Évolution de l’ornithologie, Paris, Alcan, coll. « Nouvelle collection scientifique », 1925, ii + 308</t>
         </is>
